--- a/Sensor Box Version 2/load_calibrating.xlsx
+++ b/Sensor Box Version 2/load_calibrating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noahv\OneDrive\Documenten\School\Design_n_contruction\Wing Design\Sensors\Sensor Box Version 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC1641C-9AA0-45C8-B415-C6C6DB93F062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCEFF96-ED18-4C12-B167-33A9E92759F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,6 +97,21 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Load calibration</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -121,6 +136,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.24822402605612551"/>
+                  <c:y val="-0.36494765915888422"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -191,6 +212,24 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Real load (kg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -207,6 +246,29 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Measured</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="nl-NL" baseline="0"/>
+                  <a:t> load (-)</a:t>
+                </a:r>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -236,16 +298,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -596,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
